--- a/Test/MultiPSO/Explore150Exploit200/ALLCONError_150.xlsx
+++ b/Test/MultiPSO/Explore150Exploit200/ALLCONError_150.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.007687692739430717</v>
+        <v>0.006244827986615008</v>
       </c>
       <c r="B1" t="n">
-        <v>0.001061413922474523</v>
+        <v>0.001516373699560916</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001859280282420063</v>
+        <v>0.001227230023889713</v>
       </c>
       <c r="D1" t="n">
-        <v>0.002142812559458715</v>
+        <v>0.001387565482476286</v>
       </c>
       <c r="E1" t="n">
-        <v>0.002979834633809685</v>
+        <v>0.002777213116448695</v>
       </c>
       <c r="F1" t="n">
-        <v>0.00506255076601629</v>
+        <v>0.002437205945991998</v>
       </c>
       <c r="G1" t="n">
-        <v>0.006116001173564498</v>
+        <v>0.001982008997209996</v>
       </c>
       <c r="H1" t="n">
-        <v>0.002974804036178108</v>
+        <v>0.002166557473827332</v>
       </c>
       <c r="I1" t="n">
-        <v>0.00697589935109042</v>
+        <v>0.006643047374550854</v>
       </c>
       <c r="J1" t="n">
-        <v>0.005726536906824169</v>
+        <v>0.007305680122809717</v>
       </c>
     </row>
   </sheetData>
